--- a/Data_Tables/B1_POGOJ_ATRIBUT.xlsx
+++ b/Data_Tables/B1_POGOJ_ATRIBUT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>TOCKA_OPIS</t>
+  </si>
+  <si>
+    <t>POGOJ_SIFRA</t>
+  </si>
+  <si>
+    <t>SEGMENT_TREE_PATH</t>
   </si>
   <si>
     <t xml:space="preserve">152. Omejena gibljivost kolenskega sklepa po izpahu ali zlomu sklepnih teles: 
@@ -418,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" s="6" t="s">
@@ -433,6 +439,12 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="15">
       <c r="A2" s="1">
@@ -445,8 +457,10 @@
         <v>100000033</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="15">
       <c r="A3" s="1">
@@ -459,8 +473,10 @@
         <v>100000034</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15">
       <c r="A4" s="1">
@@ -473,8 +489,10 @@
         <v>100000039</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="15">
       <c r="A5" s="1">
@@ -487,8 +505,10 @@
         <v>100000046</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
